--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Source:</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Qualifies for RPS</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -106,6 +100,18 @@
   </si>
   <si>
     <t>RQSD RPS Qualifying Source Definitions</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
@@ -488,12 +494,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
@@ -501,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
@@ -517,7 +523,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +538,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,17 +568,17 @@
     </row>
     <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +595,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -617,7 +623,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -625,7 +631,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -633,7 +639,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -641,7 +647,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -649,7 +655,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -657,7 +663,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -665,7 +671,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -673,7 +679,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -681,7 +687,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -689,10 +695,27 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +728,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -725,7 +748,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -733,7 +756,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -741,7 +764,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -749,7 +772,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -757,7 +780,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -765,7 +788,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -773,7 +796,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -781,7 +804,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -789,7 +812,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -797,7 +820,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -805,10 +828,27 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2 - 2020 Modeling\InputData\elec\RQSD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
   </bookViews>
@@ -11,39 +16,12 @@
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>California Energy Commission</t>
-  </si>
-  <si>
-    <t>http://www.energy.ca.gov/2013publications/CEC-300-2013-005/CEC-300-2013-005-ED7-CMF.pdf</t>
-  </si>
-  <si>
-    <t>Page 8, Table 1</t>
-  </si>
-  <si>
-    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
-  </si>
-  <si>
-    <t>differences between states.  Here, we use California (the most populous state)</t>
-  </si>
-  <si>
-    <t>as our model.</t>
-  </si>
-  <si>
-    <t>Certain types of small hydro and efficiency upgrades to existing hydro qualify, but</t>
-  </si>
-  <si>
-    <t>large, new hydro plants do not, so we treat hydro as non-qualifying.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Electricity Source</t>
   </si>
@@ -66,9 +44,6 @@
     <t>biomass</t>
   </si>
   <si>
-    <t>Renewables Portfolio Standard Eligibility Seventh Edition Commission Guidebook</t>
-  </si>
-  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -84,9 +59,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>BAU RPS-Qualifying Sources</t>
-  </si>
-  <si>
     <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
   </si>
   <si>
@@ -112,13 +84,16 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>Because national conversations ar increasingly centered around clean energy, we have set all clean energy sources as qualifying.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,27 +109,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,24 +127,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -191,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,110 +440,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -597,122 +499,124 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>17</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -730,122 +634,124 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>17</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2 - 2020 Modeling\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+  </si>
   <si>
     <t>Electricity Source</t>
   </si>
   <si>
-    <t>Qualifies for RPS</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -62,12 +65,6 @@
     <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
   </si>
   <si>
-    <t>model user.  The example we include uses the same RPS-qualifying definitions as the BAU case, except</t>
-  </si>
-  <si>
-    <t>biomass is no longer considered an RPS-qualifying resource.</t>
-  </si>
-  <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
   <si>
@@ -86,14 +83,47 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Because national conversations ar increasingly centered around clean energy, we have set all clean energy sources as qualifying.</t>
+    <t>differences between states.  Here, we use a "clean energy standard"</t>
+  </si>
+  <si>
+    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
+  </si>
+  <si>
+    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
+  </si>
+  <si>
+    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>local air quality impacts and land use challenges.</t>
+  </si>
+  <si>
+    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
+  </si>
+  <si>
+    <t>see notes</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Qualifies for RPS (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +135,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,17 +165,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,50 +482,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="84.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>14</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -497,29 +573,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
     <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -527,7 +603,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -535,7 +611,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -543,7 +619,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -551,7 +627,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -559,7 +635,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -567,7 +643,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -575,7 +651,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -583,7 +659,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -591,7 +667,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -599,7 +675,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -607,7 +683,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -616,10 +692,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -632,29 +732,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
     <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -662,7 +762,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -670,23 +770,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -694,7 +794,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -702,7 +802,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -710,7 +810,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -718,7 +818,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -726,7 +826,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -734,7 +834,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -742,7 +842,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -751,10 +851,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34746AE5-C50D-4884-9FB7-A387C8D632ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
@@ -56,9 +69,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -117,12 +127,18 @@
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,6 +287,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +339,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,85 +531,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -569,156 +619,162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
+      <c r="B18">
         <v>0</v>
       </c>
     </row>
@@ -728,156 +784,162 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
+      <c r="B18">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34746AE5-C50D-4884-9FB7-A387C8D632ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF66E65E-8568-482F-8FDB-58A51874C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -185,14 +203,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -212,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,9 +269,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,26 +304,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,26 +339,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,7 +538,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -623,9 +606,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -778,6 +763,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -788,9 +821,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -943,6 +978,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF66E65E-8568-482F-8FDB-58A51874C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FA76E-5D3F-4E4D-BFB9-F8690B9ED18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Source:</t>
   </si>
@@ -150,14 +150,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +180,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,12 +213,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,10 +619,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,10 +817,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
@@ -821,10 +842,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,10 +1040,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
